--- a/inputCode.xlsx
+++ b/inputCode.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proxi\eclipse-workspace\Compiler\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07CBA5A-ABF1-4ED9-80BF-6A361B074318}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{078D16C2-B777-4485-8FEB-3CDF39065BE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{31C4744E-66A6-4566-A74E-ACB3BF1E5F9A}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="23273" windowHeight="13726" xr2:uid="{31C4744E-66A6-4566-A74E-ACB3BF1E5F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="1. code exam" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="example" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="104">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +465,10 @@
   </si>
   <si>
     <t>ㅎㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'c'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -882,7 +882,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1139,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,18 +1465,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A8671B-8ADF-44B6-95FD-28323871EB5E}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:B35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="43" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="43" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1493,7 @@
       <c r="F1" s="50"/>
       <c r="G1" s="50"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A2" s="51"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -1499,7 +1502,7 @@
       <c r="F2" s="51"/>
       <c r="G2" s="51"/>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
@@ -1520,7 +1523,7 @@
       </c>
       <c r="G3" s="56"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -1529,7 +1532,7 @@
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
     </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="52" t="s">
         <v>98</v>
       </c>
@@ -1540,14 +1543,16 @@
       <c r="F5" s="57"/>
       <c r="G5" s="57"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="58">
         <v>1</v>
       </c>
       <c r="B6" s="59">
         <v>2</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="86" t="s">
+        <v>103</v>
+      </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60">
         <v>3</v>
@@ -1555,7 +1560,7 @@
       <c r="F6" s="57"/>
       <c r="G6" s="57"/>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A7" s="61">
         <v>1</v>
       </c>
@@ -1570,7 +1575,7 @@
       <c r="F7" s="57"/>
       <c r="G7" s="57"/>
     </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A8" s="64">
         <v>1</v>
       </c>
@@ -1585,7 +1590,7 @@
       <c r="F8" s="56"/>
       <c r="G8" s="57"/>
     </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A9" s="57"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
@@ -1594,7 +1599,7 @@
       <c r="F9" s="57"/>
       <c r="G9" s="57"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="67" t="s">
         <v>4</v>
       </c>
@@ -1607,7 +1612,7 @@
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A11" s="69">
         <v>3</v>
       </c>
@@ -1620,7 +1625,7 @@
       <c r="F11" s="57"/>
       <c r="G11" s="57"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="57"/>
       <c r="B12" s="57"/>
       <c r="C12" s="57"/>
@@ -1629,7 +1634,7 @@
       <c r="F12" s="57"/>
       <c r="G12" s="57"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="57" t="s">
         <v>1</v>
       </c>
@@ -1644,7 +1649,7 @@
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="57" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1664,7 @@
       <c r="F14" s="57"/>
       <c r="G14" s="57"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="57"/>
       <c r="B15" s="57"/>
       <c r="C15" s="57"/>
@@ -1668,7 +1673,7 @@
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="72" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1690,7 @@
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A17" s="73"/>
       <c r="B17" s="57" t="s">
         <v>3</v>
@@ -1700,7 +1705,7 @@
       <c r="F17" s="57"/>
       <c r="G17" s="57"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A18" s="57"/>
       <c r="B18" s="57"/>
       <c r="C18" s="57"/>
@@ -1709,7 +1714,7 @@
       <c r="F18" s="57"/>
       <c r="G18" s="57"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A19" s="72" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1727,7 @@
       <c r="F19" s="57"/>
       <c r="G19" s="57"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A20" s="74"/>
       <c r="B20" s="57" t="s">
         <v>4</v>
@@ -1737,7 +1742,7 @@
       <c r="F20" s="57"/>
       <c r="G20" s="57"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A21" s="57"/>
       <c r="B21" s="57"/>
       <c r="C21" s="57"/>
@@ -1746,7 +1751,7 @@
       <c r="F21" s="57"/>
       <c r="G21" s="57"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A22" s="72" t="s">
         <v>13</v>
       </c>
@@ -1761,7 +1766,7 @@
       <c r="F22" s="57"/>
       <c r="G22" s="57"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A23" s="74"/>
       <c r="B23" s="57" t="s">
         <v>1</v>
@@ -1776,7 +1781,7 @@
       <c r="F23" s="57"/>
       <c r="G23" s="57"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A24" s="75"/>
       <c r="B24" s="57" t="s">
         <v>1</v>
@@ -1791,7 +1796,7 @@
       <c r="F24" s="57"/>
       <c r="G24" s="57"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A25" s="57"/>
       <c r="B25" s="57"/>
       <c r="C25" s="57"/>
@@ -1800,7 +1805,7 @@
       <c r="F25" s="57"/>
       <c r="G25" s="57"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A26" s="76" t="s">
         <v>15</v>
       </c>
@@ -1813,7 +1818,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A27" s="74"/>
       <c r="B27" s="57" t="s">
         <v>2</v>
@@ -1828,7 +1833,7 @@
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A28" s="57"/>
       <c r="B28" s="57"/>
       <c r="C28" s="57"/>
@@ -1837,7 +1842,7 @@
       <c r="F28" s="57"/>
       <c r="G28" s="57"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A29" s="76" t="s">
         <v>15</v>
       </c>
@@ -1852,7 +1857,7 @@
       <c r="F29" s="57"/>
       <c r="G29" s="57"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A30" s="74"/>
       <c r="B30" s="57" t="s">
         <v>2</v>
@@ -1867,7 +1872,7 @@
       <c r="F30" s="57"/>
       <c r="G30" s="57"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A31" s="75"/>
       <c r="B31" s="57" t="s">
         <v>2</v>
@@ -1882,7 +1887,7 @@
       <c r="F31" s="57"/>
       <c r="G31" s="57"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A32" s="57"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -1891,7 +1896,7 @@
       <c r="F32" s="57"/>
       <c r="G32" s="57"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A33" s="76" t="s">
         <v>28</v>
       </c>
@@ -1910,7 +1915,7 @@
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A34" s="76" t="s">
         <v>29</v>
       </c>
@@ -1925,7 +1930,7 @@
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A35" s="76" t="s">
         <v>30</v>
       </c>
@@ -1944,7 +1949,7 @@
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A36" s="76"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -1953,7 +1958,7 @@
       <c r="F36" s="57"/>
       <c r="G36" s="57"/>
     </row>
-    <row r="37" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A37" s="76" t="s">
         <v>37</v>
       </c>
@@ -1966,7 +1971,7 @@
       <c r="F37" s="57"/>
       <c r="G37" s="57"/>
     </row>
-    <row r="38" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A38" s="76" t="s">
         <v>38</v>
       </c>
@@ -1979,7 +1984,7 @@
       <c r="F38" s="56"/>
       <c r="G38" s="57"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A39" s="57"/>
       <c r="B39" s="57"/>
       <c r="C39" s="57"/>
@@ -1988,7 +1993,7 @@
       <c r="F39" s="57"/>
       <c r="G39" s="57"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A40" s="76" t="s">
         <v>42</v>
       </c>
@@ -2007,7 +2012,7 @@
       <c r="F40" s="57"/>
       <c r="G40" s="57"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A41" s="57"/>
       <c r="B41" s="57" t="s">
         <v>44</v>
@@ -2020,7 +2025,7 @@
       <c r="F41" s="57"/>
       <c r="G41" s="57"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A42" s="57"/>
       <c r="B42" s="57" t="s">
         <v>44</v>
@@ -2039,7 +2044,7 @@
       </c>
       <c r="G42" s="57"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A43" s="57"/>
       <c r="B43" s="57"/>
       <c r="C43" s="57"/>
@@ -2048,7 +2053,7 @@
       <c r="F43" s="57"/>
       <c r="G43" s="57"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A44" s="84" t="s">
         <v>42</v>
       </c>
@@ -2067,7 +2072,7 @@
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A45" s="57"/>
       <c r="B45" s="85" t="s">
         <v>44</v>
@@ -2082,7 +2087,7 @@
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A46" s="57"/>
       <c r="B46" s="85" t="s">
         <v>44</v>
@@ -2097,7 +2102,7 @@
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A47" s="57"/>
       <c r="B47" s="85" t="s">
         <v>44</v>
@@ -2131,9 +2136,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2168,14 +2173,14 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="10.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -2191,8 +2196,8 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="3" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
@@ -2213,8 +2218,8 @@
       </c>
       <c r="G3" s="22"/>
     </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A5" s="17" t="s">
         <v>1</v>
       </c>
@@ -2228,7 +2233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B6" s="12">
         <v>1</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B7" s="15">
         <v>1</v>
       </c>
@@ -2251,8 +2256,8 @@
       </c>
       <c r="E7" s="32"/>
     </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="27" t="s">
         <v>4</v>
       </c>
@@ -2261,7 +2266,7 @@
       </c>
       <c r="C9" s="29"/>
     </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A10" s="15">
         <v>3</v>
       </c>
@@ -2270,7 +2275,7 @@
       </c>
       <c r="C10" s="30"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -2306,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -2318,7 +2323,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16.95" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2326,7 +2331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
         <v>4</v>
@@ -2338,7 +2343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -2349,7 +2354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
         <v>1</v>
@@ -2361,7 +2366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A23" s="5"/>
       <c r="B23" s="1" t="s">
         <v>1</v>
@@ -2373,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A25" s="7" t="s">
         <v>15</v>
       </c>
@@ -2381,7 +2386,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -2393,12 +2398,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.6">
       <c r="F27" s="31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A28" s="7" t="s">
         <v>15</v>
       </c>
@@ -2409,7 +2414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -2421,7 +2426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -2433,7 +2438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -2450,7 +2455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
@@ -2463,7 +2468,7 @@
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
@@ -2480,10 +2485,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2493,12 +2498,12 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
@@ -2533,7 +2538,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A40" s="39"/>
       <c r="B40" s="1" t="s">
         <v>44</v>
@@ -2551,7 +2556,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A42" s="38" t="s">
         <v>42</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A43" s="39"/>
       <c r="B43" s="13" t="s">
         <v>44</v>
@@ -2586,7 +2591,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="13" t="s">
         <v>44</v>
@@ -2604,7 +2609,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="13" t="s">
         <v>44</v>
@@ -2622,7 +2627,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A46" s="40"/>
     </row>
   </sheetData>
@@ -2637,18 +2642,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="2" max="2" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
         <v>63</v>
       </c>
@@ -2664,7 +2669,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2672,7 +2677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -2680,10 +2685,10 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -2691,7 +2696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -2699,7 +2704,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
         <v>64</v>
       </c>
@@ -2707,7 +2712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="s">
         <v>55</v>
       </c>
@@ -2715,15 +2720,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A12" s="41" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -2731,7 +2736,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A14" s="8" t="s">
         <v>75</v>
       </c>
@@ -2739,7 +2744,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A15" s="8" t="s">
         <v>77</v>
       </c>
@@ -2748,7 +2753,7 @@
       </c>
       <c r="D15" s="34"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A16" s="8" t="s">
         <v>79</v>
       </c>
@@ -2758,7 +2763,7 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
     </row>
-    <row r="17" spans="1:4" ht="16.95" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A17" s="8" t="s">
         <v>78</v>
       </c>
@@ -2768,7 +2773,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
     </row>
-    <row r="18" spans="1:4" ht="16.95" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="s">
         <v>76</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A19" s="8" t="s">
         <v>80</v>
       </c>
@@ -2784,7 +2789,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A20" s="8" t="s">
         <v>81</v>
       </c>
@@ -2793,7 +2798,7 @@
       </c>
       <c r="C20" s="34"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A21" s="8" t="s">
         <v>82</v>
       </c>
@@ -2802,52 +2807,52 @@
       </c>
       <c r="C21" s="34"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A22" s="8"/>
       <c r="B22" s="34"/>
       <c r="C22" s="34"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A23" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A25" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A27" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A28" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -2865,19 +2870,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A1" s="42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.6">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -2894,13 +2899,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="19.69921875" customWidth="1"/>
-    <col min="2" max="7" width="9.3984375" customWidth="1"/>
+    <col min="1" max="1" width="19.6875" customWidth="1"/>
+    <col min="2" max="7" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="str">
         <f>"if("&amp;B1&amp;C1&amp;D1&amp;")"&amp;E1&amp;"="&amp;F1&amp;";"&amp;IF(G1&lt;&gt;"","else "&amp;G1&amp;";","")</f>
         <v>if(a&gt;=1)b=1;else c==3;</v>
@@ -2924,7 +2929,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A15" si="0">"if("&amp;B2&amp;C2&amp;D2&amp;")"&amp;E2&amp;"="&amp;F2&amp;";"&amp;IF(G2&lt;&gt;"","else "&amp;G2&amp;";","")</f>
         <v>if(a==2)b=3;</v>
@@ -2945,7 +2950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==3)b=3;</v>
@@ -2967,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==4)b=3;</v>
@@ -2989,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==5)b=3;</v>
@@ -3011,7 +3016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==6)b=3;</v>
@@ -3033,7 +3038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==7)b=3;</v>
@@ -3055,7 +3060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==8)b=3;</v>
@@ -3077,7 +3082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==9)b=3;</v>
@@ -3099,7 +3104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==10)b=3;</v>
@@ -3121,7 +3126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==11)b=3;</v>
@@ -3143,7 +3148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==12)b=3;</v>
@@ -3165,7 +3170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==13)b=3;</v>
@@ -3187,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==14)b=3;</v>
@@ -3209,7 +3214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>if(a==15)b=3;</v>

--- a/inputCode.xlsx
+++ b/inputCode.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{078D16C2-B777-4485-8FEB-3CDF39065BE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\Compiler\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5EC5D-4B3B-4D8B-8631-CC5871E22687}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="23273" windowHeight="13726" xr2:uid="{31C4744E-66A6-4566-A74E-ACB3BF1E5F9A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{31C4744E-66A6-4566-A74E-ACB3BF1E5F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="1. code exam" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,6 @@
     <sheet name="example" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="106">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +473,14 @@
   </si>
   <si>
     <t>'c'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기에 메시지를</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1465,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A8671B-8ADF-44B6-95FD-28323871EB5E}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -1616,8 +1628,8 @@
       <c r="A11" s="69">
         <v>3</v>
       </c>
-      <c r="B11" s="70" t="b">
-        <v>1</v>
+      <c r="B11" s="70" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="57"/>
@@ -1920,7 +1932,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="78" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C34" s="79" t="s">
         <v>33</v>
@@ -2414,7 +2426,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
         <v>2</v>
@@ -2426,7 +2438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A30" s="5"/>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -2438,7 +2450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A32" s="7" t="s">
         <v>28</v>
       </c>
@@ -2455,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A33" s="7" t="s">
         <v>29</v>
       </c>
@@ -2468,7 +2480,7 @@
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
     </row>
-    <row r="34" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A34" s="7" t="s">
         <v>30</v>
       </c>
@@ -2485,10 +2497,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
@@ -2498,12 +2510,12 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -2523,7 +2535,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A39" s="4"/>
       <c r="B39" s="1" t="s">
         <v>44</v>
@@ -2538,7 +2550,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A40" s="39"/>
       <c r="B40" s="1" t="s">
         <v>44</v>
@@ -2556,7 +2568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A42" s="38" t="s">
         <v>42</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A43" s="39"/>
       <c r="B43" s="13" t="s">
         <v>44</v>
@@ -2591,7 +2603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A44" s="4"/>
       <c r="B44" s="13" t="s">
         <v>44</v>
@@ -2609,7 +2621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A45" s="5"/>
       <c r="B45" s="13" t="s">
         <v>44</v>
@@ -2627,7 +2639,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A46" s="40"/>
     </row>
   </sheetData>
@@ -2842,17 +2854,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A30" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>

--- a/inputCode.xlsx
+++ b/inputCode.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse\Compiler\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D5EC5D-4B3B-4D8B-8631-CC5871E22687}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{86B8AC19-E1E5-4B3B-AED4-62F140AE75FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" xr2:uid="{31C4744E-66A6-4566-A74E-ACB3BF1E5F9A}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="24210" windowHeight="13725" xr2:uid="{31C4744E-66A6-4566-A74E-ACB3BF1E5F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="1. code exam" sheetId="1" r:id="rId1"/>
@@ -21,6 +16,7 @@
     <sheet name="example" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1475,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A8671B-8ADF-44B6-95FD-28323871EB5E}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -2133,6 +2129,7 @@
       </c>
       <c r="G47" s="57"/>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.6"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
